--- a/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21FA1A3-935F-44D8-9427-5E9B7DE0452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{242FB3BA-9F1E-490B-B2B4-E437BBA3FBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5588E702-67ED-424C-860C-7D22BABA04B8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E668EB4-1FE2-414E-9222-6F55D4B8AD00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,24 +68,150 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Se lo mandó el médico</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Otros</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,09%</t>
   </si>
   <si>
@@ -95,114 +221,114 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>Se lo mandó el médico</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
     <t>1,92%</t>
   </si>
   <si>
@@ -221,130 +347,55 @@
     <t>8,16%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -368,60 +419,150 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
@@ -431,112 +572,100 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -545,133 +674,58 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -683,63 +737,165 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
   </si>
   <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
@@ -752,130 +908,112 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>2,85%</t>
@@ -896,142 +1034,55 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -1058,60 +1109,114 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
@@ -1127,223 +1232,169 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -1362,57 +1413,6 @@
   </si>
   <si>
     <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE901C5-1B5F-4029-A654-A1156B90F87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D097D5B-02BD-4257-BEC2-5787173C5D0A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1943,130 +1943,130 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4114</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4632</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4571</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8686</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2553</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7185</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>47395</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>35447</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>82843</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,54 +2075,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>52707</v>
+        <v>4114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>38000</v>
+        <v>4571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>90707</v>
+        <v>8686</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2134,145 +2134,145 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>20140</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>576</v>
+        <v>22600</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>576</v>
+        <v>42740</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>20140</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>22600</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>42740</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2287,13 @@
         <v>20140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -2302,13 +2302,13 @@
         <v>23176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -2317,168 +2317,168 @@
         <v>43316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>679</v>
+        <v>4632</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>778</v>
+        <v>2553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>1457</v>
+        <v>7185</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>2724</v>
+        <v>47395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>733</v>
+        <v>35447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="N13" s="7">
-        <v>3457</v>
+        <v>82843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>31915</v>
+        <v>680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>23390</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>55306</v>
+        <v>680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,204 +2487,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>35318</v>
+        <v>52707</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>24902</v>
+        <v>38000</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="N15" s="7">
-        <v>60220</v>
+        <v>90707</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2406</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>55</v>
+      </c>
+      <c r="I17" s="7">
+        <v>33140</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="7">
+        <v>111</v>
+      </c>
+      <c r="N17" s="7">
+        <v>70120</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>4114</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4571</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="7">
-        <v>11</v>
-      </c>
-      <c r="N18" s="7">
-        <v>8686</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,201 +2693,201 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>4114</v>
+        <v>38110</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>4571</v>
+        <v>35546</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="N19" s="7">
-        <v>8686</v>
+        <v>73656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>1130</v>
+        <v>31915</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>2406</v>
+        <v>23390</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="N21" s="7">
-        <v>3536</v>
+        <v>55306</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>36980</v>
+        <v>679</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>33140</v>
+        <v>778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>70120</v>
+        <v>1457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>101</v>
@@ -2899,49 +2899,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7">
-        <v>38110</v>
+        <v>35318</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>35546</v>
+        <v>24902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="N23" s="7">
-        <v>73656</v>
+        <v>60220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,142 +2952,142 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>1358</v>
+        <v>8486</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>778</v>
+        <v>6268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>2137</v>
+        <v>14754</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="D25" s="7">
-        <v>8486</v>
+        <v>140545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="I25" s="7">
-        <v>6268</v>
+        <v>119149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="N25" s="7">
-        <v>14754</v>
+        <v>259694</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>140545</v>
+        <v>1358</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>119149</v>
+        <v>778</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M26" s="7">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>259694</v>
+        <v>2137</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>123</v>
@@ -3111,13 +3111,13 @@
         <v>150389</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>193</v>
@@ -3126,13 +3126,13 @@
         <v>126195</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>418</v>
@@ -3141,13 +3141,13 @@
         <v>276584</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C33FCC6-83E6-4630-91FD-D732EBFCCF69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73529D4-72D1-4A22-87A4-091C0F0E0F8D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3292,70 +3292,70 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>5377</v>
+        <v>7240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>5347</v>
+        <v>3142</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>133</v>
@@ -3364,73 +3364,73 @@
         <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10382</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="7">
-        <v>16</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10724</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>54968</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>51177</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>106145</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,204 +3439,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>60345</v>
+        <v>7240</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>56524</v>
+        <v>4066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>116869</v>
+        <v>11305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
-        <v>1972</v>
+        <v>29261</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="7">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>24712</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="7">
+        <v>74</v>
+      </c>
+      <c r="N9" s="7">
+        <v>53973</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1559</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="7">
-        <v>5</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3531</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>29261</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>24712</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>53973</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3651,13 @@
         <v>31233</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -3666,13 +3666,13 @@
         <v>26271</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3681,168 +3681,168 @@
         <v>57504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>5347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>10724</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>2877</v>
+        <v>54968</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="7">
+        <v>79</v>
+      </c>
+      <c r="I13" s="7">
+        <v>51177</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>734</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>157</v>
+      </c>
+      <c r="N13" s="7">
+        <v>106145</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3611</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>41456</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>36172</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="7">
-        <v>104</v>
-      </c>
-      <c r="N14" s="7">
-        <v>77628</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,99 +3851,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>44333</v>
+        <v>60345</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>36906</v>
+        <v>56524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="N15" s="7">
-        <v>81239</v>
+        <v>116869</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>675</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5656</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>183</v>
@@ -3952,103 +3952,103 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>54395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>924</v>
+        <v>30461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>923</v>
+        <v>84856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>7240</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>10382</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,204 +4057,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>7240</v>
+        <v>59376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>4066</v>
+        <v>31136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>11305</v>
+        <v>90512</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3611</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7">
-        <v>4981</v>
+        <v>41456</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
+        <v>48</v>
+      </c>
+      <c r="I21" s="7">
+        <v>36172</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>675</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M21" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="N21" s="7">
-        <v>5656</v>
+        <v>77628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>54395</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>30461</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>84856</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,49 +4263,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7">
-        <v>59376</v>
+        <v>44333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="7">
-        <v>31136</v>
+        <v>36906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="N23" s="7">
-        <v>90512</v>
+        <v>81239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,148 +4316,148 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>15206</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>9239</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>24445</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="D25" s="7">
-        <v>15206</v>
+        <v>187320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="I25" s="7">
-        <v>9239</v>
+        <v>145664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="N25" s="7">
-        <v>24445</v>
+        <v>332984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>187320</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H26" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>145664</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>332984</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>231</v>
@@ -4475,13 +4475,13 @@
         <v>202526</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>225</v>
@@ -4490,13 +4490,13 @@
         <v>154903</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>512</v>
@@ -4505,13 +4505,13 @@
         <v>357429</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4532,7 +4532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B61101-8B53-4BF6-9361-F1BDAF7AAE8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4463D-7EFA-4E54-848F-A6DF56C41B35}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4650,46 +4650,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>608</v>
+        <v>1003</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>236</v>
@@ -4698,13 +4698,13 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2005</v>
+        <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>237</v>
@@ -4713,88 +4713,88 @@
         <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>3894</v>
+        <v>5449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>5899</v>
+        <v>8036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>30740</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>29841</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>60581</v>
+        <v>1003</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,204 +4803,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>32745</v>
+        <v>4592</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>34343</v>
+        <v>5449</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>67088</v>
+        <v>10041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>678</v>
+        <v>3524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1793</v>
+        <v>1345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>2471</v>
+        <v>4868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>3524</v>
+        <v>14541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>1345</v>
+        <v>17449</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N9" s="7">
-        <v>4868</v>
+        <v>31991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>14541</v>
+        <v>678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>17449</v>
+        <v>1793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>31991</v>
+        <v>2471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5015,13 @@
         <v>18743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5030,13 +5030,13 @@
         <v>20587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -5045,168 +5045,168 @@
         <v>39330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>741</v>
+        <v>2005</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>846</v>
+        <v>3894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>1587</v>
+        <v>5899</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>2982</v>
+        <v>30740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>753</v>
+        <v>29841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="N13" s="7">
-        <v>3735</v>
+        <v>60581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>22244</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>20950</v>
+        <v>608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>43196</v>
+        <v>608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,204 +5215,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>25967</v>
+        <v>32745</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>22549</v>
+        <v>34343</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N15" s="7">
-        <v>48517</v>
+        <v>67088</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1882</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>1003</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1003</v>
+        <v>2422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>1003</v>
+        <v>26782</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="7">
+        <v>53</v>
+      </c>
+      <c r="I17" s="7">
+        <v>31497</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="N17" s="7">
-        <v>1003</v>
+        <v>58280</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>2587</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1003</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1003</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5449</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="7">
-        <v>9</v>
-      </c>
-      <c r="N18" s="7">
-        <v>8036</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,201 +5421,201 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>4592</v>
+        <v>28664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>5449</v>
+        <v>33039</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>10041</v>
+        <v>61704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1003</v>
+        <v>753</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>1003</v>
+        <v>3735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7">
-        <v>1882</v>
+        <v>22244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>540</v>
+        <v>20950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="N21" s="7">
-        <v>2422</v>
+        <v>43196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>26782</v>
+        <v>741</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>31497</v>
+        <v>846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>58280</v>
+        <v>1587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>330</v>
@@ -5627,49 +5627,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>28664</v>
+        <v>25967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>33039</v>
+        <v>22549</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="N23" s="7">
-        <v>61704</v>
+        <v>48517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,76 +5680,76 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>2421</v>
+        <v>11395</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>4250</v>
+        <v>6531</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>6671</v>
+        <v>17927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D25" s="7">
-        <v>11395</v>
+        <v>96894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="I25" s="7">
-        <v>6531</v>
+        <v>105187</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>342</v>
@@ -5761,10 +5761,10 @@
         <v>344</v>
       </c>
       <c r="M25" s="7">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="N25" s="7">
-        <v>17927</v>
+        <v>202081</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>345</v>
@@ -5779,28 +5779,28 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>96894</v>
+        <v>2421</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H26" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>105187</v>
+        <v>4250</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>350</v>
@@ -5812,10 +5812,10 @@
         <v>352</v>
       </c>
       <c r="M26" s="7">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>202081</v>
+        <v>6671</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>353</v>
@@ -5839,13 +5839,13 @@
         <v>110711</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>181</v>
@@ -5854,13 +5854,13 @@
         <v>115968</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>339</v>
@@ -5869,13 +5869,13 @@
         <v>226679</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA28476F-DC71-4DBD-B89B-1DFC834856A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09826A42-BF16-4FCE-A3A5-A1CFE7A9BD1A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6020,145 +6020,145 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>357</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2726</v>
+        <v>1307</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>2757</v>
+        <v>4911</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>5483</v>
+        <v>6218</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>27556</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>27756</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>55312</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,204 +6167,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>30282</v>
+        <v>1307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>31004</v>
+        <v>4911</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>61286</v>
+        <v>6218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>902</v>
+        <v>17063</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>1117</v>
+        <v>13692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N9" s="7">
-        <v>2019</v>
+        <v>30755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>17063</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>13692</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>30755</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6379,13 @@
         <v>17965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -6394,13 +6394,13 @@
         <v>14809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -6409,168 +6409,168 @@
         <v>32774</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>2757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>378</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>379</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>5483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>381</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>3210</v>
+        <v>27556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>632</v>
+        <v>27756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>3843</v>
+        <v>55312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>27853</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>15250</v>
+        <v>491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>43102</v>
+        <v>491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,204 +6579,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>31063</v>
+        <v>30282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>15882</v>
+        <v>31004</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>46945</v>
+        <v>61286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>20726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17" s="7">
+        <v>33</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22310</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>59</v>
+      </c>
+      <c r="N17" s="7">
+        <v>43036</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1307</v>
+        <v>1653</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>4911</v>
+        <v>833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>6218</v>
+        <v>2485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>38</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,204 +6785,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>1307</v>
+        <v>23314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>4911</v>
+        <v>24764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>6218</v>
+        <v>48078</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>1653</v>
+        <v>3210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>833</v>
+        <v>632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2485</v>
+        <v>3843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>935</v>
+        <v>27853</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I21" s="7">
-        <v>1622</v>
+        <v>15250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="N21" s="7">
-        <v>2557</v>
+        <v>43102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>20726</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>22310</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>43036</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,49 +6991,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7">
-        <v>23314</v>
+        <v>31063</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>24764</v>
+        <v>15882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>48078</v>
+        <v>46945</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,151 +7044,151 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>1653</v>
+        <v>7774</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>1324</v>
+        <v>6128</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>2976</v>
+        <v>13902</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>7774</v>
+        <v>94505</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="I25" s="7">
-        <v>6128</v>
+        <v>83917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="N25" s="7">
-        <v>13902</v>
+        <v>178423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>94505</v>
+        <v>1653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>83917</v>
+        <v>1324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>178423</v>
+        <v>2976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>103932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>138</v>
@@ -7218,13 +7218,13 @@
         <v>91369</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>276</v>
@@ -7233,13 +7233,13 @@
         <v>195301</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242FB3BA-9F1E-490B-B2B4-E437BBA3FBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D702164-F779-4C41-99A3-FBC573AEB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E668EB4-1FE2-414E-9222-6F55D4B8AD00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EFBCA2B-8934-406C-90BB-0B7496E74FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="456">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
@@ -71,1348 +71,1342 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>Se lo mandó el médico</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>Usted sus familiares u otras personas lo consideraron necesa</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>12,69%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
     <t>8,79%</t>
   </si>
   <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>12,65%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1519,39 +1513,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1603,7 +1597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1714,13 +1708,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1729,6 +1716,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1793,19 +1787,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D097D5B-02BD-4257-BEC2-5787173C5D0A}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BC01C6-557F-49EC-B65B-3680B542DED3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2143,34 +2157,34 @@
         <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>576</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2202,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>19</v>
@@ -2200,10 +2214,10 @@
         <v>22600</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>17</v>
@@ -2215,10 +2229,10 @@
         <v>42740</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>17</v>
@@ -2245,31 +2259,31 @@
         <v>24</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>576</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -2334,49 +2348,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>4632</v>
+        <v>680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2553</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>680</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7185</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2405,13 @@
         <v>47395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -2406,13 +2420,13 @@
         <v>35447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -2421,13 +2435,13 @@
         <v>82843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,46 +2450,46 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>680</v>
+        <v>4632</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2553</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7185</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>680</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>59</v>
@@ -2540,49 +2554,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2406</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3536</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,10 +2611,10 @@
         <v>36980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2612,13 +2626,13 @@
         <v>33140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -2627,13 +2641,13 @@
         <v>70120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,46 +2656,46 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2406</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3536</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>79</v>
@@ -2746,28 +2760,28 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2724</v>
+        <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -2776,19 +2790,19 @@
         <v>84</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>3457</v>
+        <v>1457</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2817,13 @@
         <v>31915</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2818,10 +2832,10 @@
         <v>23390</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -2833,13 +2847,13 @@
         <v>55306</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,16 +2862,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>679</v>
+        <v>2724</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>97</v>
@@ -2866,28 +2880,28 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3457</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1457</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>101</v>
@@ -2952,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>8486</v>
+        <v>1358</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>778</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6268</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2137</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="M24" s="7">
-        <v>23</v>
-      </c>
-      <c r="N24" s="7">
-        <v>14754</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3023,13 @@
         <v>140545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -3024,13 +3038,13 @@
         <v>119149</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -3039,13 +3053,13 @@
         <v>259694</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,40 +3068,40 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>1358</v>
+        <v>8486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6268</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>778</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>2137</v>
+        <v>14754</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>123</v>
@@ -3148,6 +3162,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3168,8 +3187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73529D4-72D1-4A22-87A4-091C0F0E0F8D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59DFD88-501F-47E0-8AEF-40DA0549708B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3185,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3298,37 +3317,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>923</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3358,10 +3377,10 @@
         <v>3142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3373,10 +3392,10 @@
         <v>10382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3400,37 +3419,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,49 +3511,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1972</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1559</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3531</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3568,13 @@
         <v>29261</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3564,10 +3583,10 @@
         <v>24712</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>17</v>
@@ -3579,13 +3598,13 @@
         <v>53973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,49 +3613,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1559</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>3531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,49 +3717,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>5377</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>5347</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10724</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3774,13 @@
         <v>54968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3770,13 +3789,13 @@
         <v>51177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3785,13 +3804,13 @@
         <v>106145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,49 +3819,49 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5347</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>10724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,49 +3923,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4981</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>5656</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3980,13 @@
         <v>54395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3976,10 +3995,10 @@
         <v>30461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3991,13 +4010,13 @@
         <v>84856</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,49 +4025,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>4981</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>675</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>5656</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4129,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2877</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>198</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3611</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4186,13 @@
         <v>41456</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4182,10 +4201,10 @@
         <v>36172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -4197,13 +4216,13 @@
         <v>77628</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,49 +4231,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>734</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>210</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>3611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4335,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>15206</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>9239</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="M24" s="7">
-        <v>36</v>
-      </c>
-      <c r="N24" s="7">
-        <v>24445</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4392,13 @@
         <v>187320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -4388,13 +4407,13 @@
         <v>145664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -4403,13 +4422,13 @@
         <v>332984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4437,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>15206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="7">
+        <v>13</v>
+      </c>
+      <c r="I26" s="7">
+        <v>9239</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>24445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,6 +4531,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4532,8 +4556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4463D-7EFA-4E54-848F-A6DF56C41B35}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E582FCCD-963C-4A75-BC44-7C601FD73C21}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4549,7 +4573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4656,13 +4680,13 @@
         <v>1003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4686,13 +4710,13 @@
         <v>1003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,10 +4731,10 @@
         <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4737,10 +4761,10 @@
         <v>8036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4758,13 +4782,13 @@
         <v>1003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4788,13 +4812,13 @@
         <v>1003</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,49 +4880,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>3524</v>
+        <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1345</v>
+        <v>1793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>4868</v>
+        <v>2471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4937,13 @@
         <v>14541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4928,13 +4952,13 @@
         <v>17449</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -4943,13 +4967,13 @@
         <v>31991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +4982,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>678</v>
+        <v>3524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1793</v>
+        <v>1345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2471</v>
+        <v>4868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,49 +5086,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>608</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>608</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3894</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5899</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5143,13 @@
         <v>30740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5134,13 +5158,13 @@
         <v>29841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5149,13 +5173,13 @@
         <v>60581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,49 +5188,49 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>608</v>
+        <v>3894</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5899</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>608</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +5292,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1003</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1003</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>540</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2422</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5349,13 @@
         <v>26782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -5340,13 +5364,13 @@
         <v>31497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5355,13 +5379,13 @@
         <v>58280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5394,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1003</v>
+        <v>540</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2422</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1003</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +5498,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2982</v>
+        <v>741</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1587</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3735</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5555,13 @@
         <v>22244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -5546,10 +5570,10 @@
         <v>20950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -5561,13 +5585,13 @@
         <v>43196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,49 +5600,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>741</v>
+        <v>2982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>846</v>
+        <v>753</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3735</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1587</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,49 +5704,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>11395</v>
+        <v>2421</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4250</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="7">
+      <c r="L24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="I24" s="7">
-        <v>6531</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="N24" s="7">
+        <v>6671</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="M24" s="7">
-        <v>26</v>
-      </c>
-      <c r="N24" s="7">
-        <v>17927</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5761,13 @@
         <v>96894</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -5752,13 +5776,13 @@
         <v>105187</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>303</v>
@@ -5767,13 +5791,13 @@
         <v>202081</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,49 +5806,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7">
-        <v>2421</v>
+        <v>11395</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>349</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>4250</v>
+        <v>6531</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>26</v>
+      </c>
+      <c r="N26" s="7">
+        <v>17927</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6671</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,6 +5900,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5896,8 +5925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09826A42-BF16-4FCE-A3A5-A1CFE7A9BD1A}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F95A2A2-C0E8-4D83-A920-FF85205ED77F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5913,7 +5942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6026,7 +6055,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6041,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6074,7 +6103,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -6089,7 +6118,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6128,7 +6157,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6143,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6220,49 +6249,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,10 +6306,10 @@
         <v>17063</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -6292,10 +6321,10 @@
         <v>13692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>17</v>
@@ -6307,13 +6336,13 @@
         <v>30755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,49 +6351,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,49 +6455,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>491</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>491</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2757</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5483</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6512,13 @@
         <v>27556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6498,13 +6527,13 @@
         <v>27756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -6513,13 +6542,13 @@
         <v>55312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,46 +6557,46 @@
         <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2757</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>491</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5483</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>491</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>396</v>
@@ -6632,10 +6661,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>935</v>
+        <v>1653</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>397</v>
@@ -6647,10 +6676,10 @@
         <v>398</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1622</v>
+        <v>833</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>399</v>
@@ -6665,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2557</v>
+        <v>2485</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>401</v>
@@ -6734,10 +6763,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1653</v>
+        <v>935</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>413</v>
@@ -6749,10 +6778,10 @@
         <v>414</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>833</v>
+        <v>1622</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>415</v>
@@ -6767,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>2485</v>
+        <v>2557</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>417</v>
@@ -6838,49 +6867,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3210</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>632</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3843</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6924,13 @@
         <v>27853</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -6910,10 +6939,10 @@
         <v>15250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -6925,13 +6954,13 @@
         <v>43102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,49 +6969,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>3210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>3843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,49 +7073,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>7774</v>
+        <v>1653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1324</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6128</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2976</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="M24" s="7">
-        <v>20</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13902</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7130,13 @@
         <v>94505</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>126</v>
@@ -7116,13 +7145,13 @@
         <v>83917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -7131,13 +7160,13 @@
         <v>178423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,49 +7175,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>1653</v>
+        <v>7774</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6128</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>20</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13902</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1324</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2976</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,6 +7269,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D702164-F779-4C41-99A3-FBC573AEB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4480AA49-CC88-441A-902C-333E9E4D5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EFBCA2B-8934-406C-90BB-0B7496E74FE4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34874494-DAB4-494E-A1BE-E9DFD76411B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="447">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -110,7 +110,7 @@
     <t>Se lo mandó el médico</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -128,34 +128,34 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>86,87%</t>
+    <t>89,14%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>93,33%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>13,13%</t>
+    <t>10,86%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -164,1249 +164,1222 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2015 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>12,65%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>12,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BC01C6-557F-49EC-B65B-3680B542DED3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154A21A-1BBA-405C-8DCC-B4B24A8777C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,13 +2790,13 @@
         <v>31915</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2832,10 +2805,10 @@
         <v>23390</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -2847,13 +2820,13 @@
         <v>55306</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2841,13 @@
         <v>2724</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2889,7 +2862,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2898,13 +2871,13 @@
         <v>3457</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2945,13 @@
         <v>1358</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2987,13 +2960,13 @@
         <v>778</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3002,10 +2975,10 @@
         <v>2137</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>107</v>
@@ -3041,10 +3014,10 @@
         <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -3053,13 +3026,13 @@
         <v>259694</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3047,13 @@
         <v>8486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -3089,13 +3062,13 @@
         <v>6268</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3104,13 +3077,13 @@
         <v>14754</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3139,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59DFD88-501F-47E0-8AEF-40DA0549708B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C9FA-C0D1-4C8E-BF0F-6F9AC9518F7B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3204,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3347,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3338,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3377,10 +3350,10 @@
         <v>3142</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3392,10 +3365,10 @@
         <v>10382</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3419,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3428,13 +3401,13 @@
         <v>924</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3443,13 +3416,13 @@
         <v>923</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3538,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3553,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3541,13 @@
         <v>29261</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3583,10 +3556,10 @@
         <v>24712</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>17</v>
@@ -3598,13 +3571,13 @@
         <v>53973</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3592,13 @@
         <v>1972</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3634,13 +3607,13 @@
         <v>1559</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3649,13 +3622,13 @@
         <v>3531</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3744,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3759,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3747,13 @@
         <v>54968</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3789,13 +3762,13 @@
         <v>51177</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3804,13 +3777,13 @@
         <v>106145</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3798,13 @@
         <v>5377</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3840,13 +3813,13 @@
         <v>5347</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3855,13 +3828,13 @@
         <v>10724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3950,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3965,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3953,13 @@
         <v>54395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3995,10 +3968,10 @@
         <v>30461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4010,13 +3983,13 @@
         <v>84856</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4004,13 @@
         <v>4981</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4046,13 +4019,13 @@
         <v>675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4061,13 +4034,13 @@
         <v>5656</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4156,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4171,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4159,13 @@
         <v>41456</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4201,10 +4174,10 @@
         <v>36172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -4216,13 +4189,13 @@
         <v>77628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4210,13 @@
         <v>2877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4252,13 +4225,13 @@
         <v>734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4267,13 +4240,13 @@
         <v>3611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4362,7 +4335,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4377,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4365,13 @@
         <v>187320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -4407,13 +4380,13 @@
         <v>145664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -4422,13 +4395,13 @@
         <v>332984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4416,13 @@
         <v>15206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4458,13 +4431,13 @@
         <v>9239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -4473,13 +4446,13 @@
         <v>24445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4508,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4556,7 +4529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E582FCCD-963C-4A75-BC44-7C601FD73C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205E41D4-89EE-429A-BC37-CA9B628DDF87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4573,7 +4546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4680,13 +4653,13 @@
         <v>1003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4710,13 +4683,13 @@
         <v>1003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,10 +4704,10 @@
         <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4761,10 +4734,10 @@
         <v>8036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4782,13 +4755,13 @@
         <v>1003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4812,13 +4785,13 @@
         <v>1003</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4859,13 @@
         <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4901,13 +4874,13 @@
         <v>1793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4916,13 +4889,13 @@
         <v>2471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4910,13 @@
         <v>14541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4952,13 +4925,13 @@
         <v>17449</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -4967,13 +4940,13 @@
         <v>31991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4961,13 @@
         <v>3524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5003,13 +4976,13 @@
         <v>1345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5018,13 +4991,13 @@
         <v>4868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5107,13 +5080,13 @@
         <v>608</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5122,13 +5095,13 @@
         <v>608</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5116,13 @@
         <v>30740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5158,13 +5131,13 @@
         <v>29841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5173,13 +5146,13 @@
         <v>60581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5167,13 @@
         <v>2005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5209,13 +5182,13 @@
         <v>3894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -5227,10 +5200,10 @@
         <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5313,13 +5286,13 @@
         <v>1003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5334,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5322,13 @@
         <v>26782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -5364,13 +5337,13 @@
         <v>31497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5379,13 +5352,13 @@
         <v>58280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5373,13 @@
         <v>1882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5415,13 +5388,13 @@
         <v>540</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5430,13 +5403,13 @@
         <v>2422</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5477,13 @@
         <v>741</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5519,13 +5492,13 @@
         <v>846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5534,13 +5507,13 @@
         <v>1587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5528,13 @@
         <v>22244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -5570,10 +5543,10 @@
         <v>20950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -5585,13 +5558,13 @@
         <v>43196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5579,13 @@
         <v>2982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5621,13 +5594,13 @@
         <v>753</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5636,13 +5609,13 @@
         <v>3735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5683,13 @@
         <v>2421</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5725,13 +5698,13 @@
         <v>4250</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -5740,13 +5713,13 @@
         <v>6671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5734,13 @@
         <v>96894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -5776,13 +5749,13 @@
         <v>105187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>303</v>
@@ -5791,13 +5764,13 @@
         <v>202081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5785,13 @@
         <v>11395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -5827,13 +5800,13 @@
         <v>6531</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -5842,13 +5815,13 @@
         <v>17927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +5877,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5925,7 +5898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F95A2A2-C0E8-4D83-A920-FF85205ED77F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE8F77E-70F4-4D1F-8A09-D894D50A336C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5942,7 +5915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6055,7 +6028,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6070,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6103,7 +6076,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -6118,7 +6091,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -6157,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6172,7 +6145,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6261,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6276,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6291,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,10 +6279,10 @@
         <v>17063</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -6321,10 +6294,10 @@
         <v>13692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>17</v>
@@ -6336,13 +6309,13 @@
         <v>30755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6330,13 @@
         <v>902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6372,13 +6345,13 @@
         <v>1117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6387,13 +6360,13 @@
         <v>2019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6476,13 +6449,13 @@
         <v>491</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6491,13 +6464,13 @@
         <v>491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6485,13 @@
         <v>27556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6527,13 +6500,13 @@
         <v>27756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -6542,13 +6515,13 @@
         <v>55312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6536,13 @@
         <v>2726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6578,13 +6551,13 @@
         <v>2757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -6593,13 +6566,13 @@
         <v>5483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6640,13 @@
         <v>1653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6682,13 +6655,13 @@
         <v>833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6697,13 +6670,13 @@
         <v>2485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6691,13 @@
         <v>20726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -6733,13 +6706,13 @@
         <v>22310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -6748,13 +6721,13 @@
         <v>43036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6742,13 @@
         <v>935</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6784,13 +6757,13 @@
         <v>1622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6799,13 +6772,13 @@
         <v>2557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,7 +6852,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6894,7 +6867,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6909,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6897,13 @@
         <v>27853</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -6939,10 +6912,10 @@
         <v>15250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>17</v>
@@ -6954,13 +6927,13 @@
         <v>43102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6948,13 @@
         <v>3210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6990,13 +6963,13 @@
         <v>632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7005,13 +6978,13 @@
         <v>3843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7052,13 @@
         <v>1653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7094,13 +7067,13 @@
         <v>1324</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7109,13 +7082,13 @@
         <v>2976</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7103,13 @@
         <v>94505</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>126</v>
@@ -7145,13 +7118,13 @@
         <v>83917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -7160,13 +7133,13 @@
         <v>178423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7154,13 @@
         <v>7774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7196,13 +7169,13 @@
         <v>6128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -7211,13 +7184,13 @@
         <v>13902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7246,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4480AA49-CC88-441A-902C-333E9E4D5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A809F5D-D4BD-48C9-923B-540F462F32A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34874494-DAB4-494E-A1BE-E9DFD76411B2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{853269CF-437B-408F-9BC2-54571218DDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="425">
   <si>
     <t>Menores según del porqué se decidió ir al servicio de urgencias en 2007 (Tasa respuesta: 19,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -80,1306 +80,1240 @@
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>Usted sus familiares u otras personas lo consideraron necesa</t>
   </si>
   <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>69,43%</t>
+    <t>94,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2012 (Tasa respuesta: 24,39%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2016 (Tasa respuesta: 15,95%)</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>Menores según del porqué se decidió ir al servicio de urgencias en 2023 (Tasa respuesta: 14,37%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154A21A-1BBA-405C-8DCC-B4B24A8777C2}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D1F534-070C-426B-8546-F520EB4BBE30}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1960,10 +1894,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>4114</v>
+        <v>27171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1975,31 +1909,31 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>4571</v>
+        <v>24254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="N5" s="7">
-        <v>8686</v>
+        <v>51425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2008,22 +1942,22 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2041,19 +1975,19 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,54 +1996,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>4114</v>
+        <v>27747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>4571</v>
+        <v>24254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>8686</v>
+        <v>52001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2127,37 +2061,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,100 +2100,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>20140</v>
+        <v>35447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>22600</v>
+        <v>47395</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>42740</v>
+        <v>82843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>576</v>
+        <v>4632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>576</v>
+        <v>7185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,72 +2202,72 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>20140</v>
+        <v>38000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
-        <v>23176</v>
+        <v>52707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="N11" s="7">
-        <v>43316</v>
+        <v>90707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2348,22 +2282,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,100 +2306,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>47395</v>
+        <v>33140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>35447</v>
+        <v>36980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>82843</v>
+        <v>70120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>4632</v>
+        <v>2406</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2553</v>
+        <v>1130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>7185</v>
+        <v>3536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,102 +2408,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>52707</v>
+        <v>35546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="7">
-        <v>38000</v>
+        <v>38110</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="N15" s="7">
-        <v>90707</v>
+        <v>73656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,100 +2512,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>36980</v>
+        <v>23390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>33140</v>
+        <v>31915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>70120</v>
+        <v>55306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1130</v>
+        <v>733</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2406</v>
+        <v>2724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>3536</v>
+        <v>3457</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,54 +2614,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>38110</v>
+        <v>24902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>35546</v>
+        <v>35318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7">
-        <v>73656</v>
+        <v>60220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2736,46 +2670,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>778</v>
+        <v>1358</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1457</v>
+        <v>2137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,100 +2718,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D21" s="7">
-        <v>31915</v>
+        <v>119149</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="I21" s="7">
-        <v>23390</v>
+        <v>140545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="N21" s="7">
-        <v>55306</v>
+        <v>259694</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>2724</v>
+        <v>6268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>733</v>
+        <v>8486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>3457</v>
+        <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,268 +2820,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7">
-        <v>35318</v>
+        <v>126195</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>24902</v>
+        <v>150389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="N23" s="7">
-        <v>60220</v>
+        <v>276584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>778</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2137</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>210</v>
-      </c>
-      <c r="D25" s="7">
-        <v>140545</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="7">
-        <v>182</v>
-      </c>
-      <c r="I25" s="7">
-        <v>119149</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M25" s="7">
-        <v>392</v>
-      </c>
-      <c r="N25" s="7">
-        <v>259694</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>13</v>
-      </c>
-      <c r="D26" s="7">
-        <v>8486</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6268</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26" s="7">
-        <v>23</v>
-      </c>
-      <c r="N26" s="7">
-        <v>14754</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>225</v>
-      </c>
-      <c r="D27" s="7">
-        <v>150389</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>193</v>
-      </c>
-      <c r="I27" s="7">
-        <v>126195</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>418</v>
-      </c>
-      <c r="N27" s="7">
-        <v>276584</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3160,8 +2887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C9FA-C0D1-4C8E-BF0F-6F9AC9518F7B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC8B7EC-7109-4788-A863-8612013BE4AA}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3177,7 +2904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3290,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3305,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3320,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,100 +3056,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>7240</v>
+        <v>27855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7">
+        <v>36500</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3142</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>85</v>
+      </c>
+      <c r="N5" s="7">
+        <v>64355</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10382</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>924</v>
+        <v>1972</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>923</v>
+        <v>4454</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,54 +3158,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>7240</v>
+        <v>30337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>4066</v>
+        <v>38472</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>11305</v>
+        <v>68809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3496,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3511,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3526,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,100 +3262,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>29261</v>
+        <v>51177</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7">
-        <v>24712</v>
+        <v>54968</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="N9" s="7">
-        <v>53973</v>
+        <v>106145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>1972</v>
+        <v>5347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>1559</v>
+        <v>5377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>3531</v>
+        <v>10724</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,54 +3364,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7">
-        <v>31233</v>
+        <v>56524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>26271</v>
+        <v>60345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="N11" s="7">
-        <v>57504</v>
+        <v>116869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3702,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3717,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3732,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,100 +3468,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>54968</v>
+        <v>30461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>51177</v>
+        <v>54395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="N13" s="7">
-        <v>106145</v>
+        <v>84856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>5377</v>
+        <v>675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>5347</v>
+        <v>4981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>10724</v>
+        <v>5656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,54 +3570,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>60345</v>
+        <v>31136</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>56524</v>
+        <v>59376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="N15" s="7">
-        <v>116869</v>
+        <v>90512</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3908,7 +3635,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3923,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3938,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3674,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>54395</v>
+        <v>36172</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>181</v>
@@ -3959,28 +3686,28 @@
         <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>56</v>
+      </c>
+      <c r="I17" s="7">
+        <v>41456</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="7">
-        <v>47</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30461</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>84856</v>
+        <v>77628</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>185</v>
@@ -3995,43 +3722,43 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>4981</v>
+        <v>734</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2877</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>675</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>5656</v>
+        <v>3611</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>192</v>
@@ -4049,54 +3776,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>59376</v>
+        <v>36906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>31136</v>
+        <v>44333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="N19" s="7">
-        <v>90512</v>
+        <v>81239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4144,7 +3871,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,100 +3880,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>41456</v>
+        <v>145664</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="I21" s="7">
-        <v>36172</v>
+        <v>187320</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="N21" s="7">
-        <v>77628</v>
+        <v>332984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>2877</v>
+        <v>9239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>734</v>
+        <v>15206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>3611</v>
+        <v>24445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,268 +3982,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="D23" s="7">
-        <v>44333</v>
+        <v>154903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>36906</v>
+        <v>202526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>109</v>
+        <v>512</v>
       </c>
       <c r="N23" s="7">
-        <v>81239</v>
+        <v>357429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>264</v>
-      </c>
-      <c r="D25" s="7">
-        <v>187320</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="7">
-        <v>212</v>
-      </c>
-      <c r="I25" s="7">
-        <v>145664</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M25" s="7">
-        <v>476</v>
-      </c>
-      <c r="N25" s="7">
-        <v>332984</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>23</v>
-      </c>
-      <c r="D26" s="7">
-        <v>15206</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>9239</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M26" s="7">
-        <v>36</v>
-      </c>
-      <c r="N26" s="7">
-        <v>24445</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>287</v>
-      </c>
-      <c r="D27" s="7">
-        <v>202526</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>225</v>
-      </c>
-      <c r="I27" s="7">
-        <v>154903</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>512</v>
-      </c>
-      <c r="N27" s="7">
-        <v>357429</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>125</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4529,8 +4049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205E41D4-89EE-429A-BC37-CA9B628DDF87}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B69675-146E-4864-901C-4A5305016721}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4546,7 +4066,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4647,49 +4167,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1003</v>
+        <v>1793</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1003</v>
+        <v>3474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,100 +4218,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>2587</v>
+        <v>22898</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="7">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>17128</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="7">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40026</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5449</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8036</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1003</v>
+        <v>1344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4526</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>1003</v>
+        <v>5871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,54 +4320,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>4592</v>
+        <v>26036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>5449</v>
+        <v>23335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>10041</v>
+        <v>49371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4856,46 +4376,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>678</v>
+        <v>608</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1793</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>608</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2471</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,40 +4424,40 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>14541</v>
+        <v>29841</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7">
+        <v>30740</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="7">
-        <v>26</v>
-      </c>
-      <c r="I9" s="7">
-        <v>17449</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>31991</v>
+        <v>60581</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>251</v>
@@ -4952,13 +4472,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>3524</v>
+        <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>254</v>
@@ -4970,28 +4490,28 @@
         <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1345</v>
+        <v>2005</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>4868</v>
+        <v>5899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>260</v>
@@ -5006,102 +4526,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>18743</v>
+        <v>34343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>20587</v>
+        <v>32745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>39330</v>
+        <v>67088</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>608</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>608</v>
+        <v>1003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,100 +4630,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>30740</v>
+        <v>31497</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>29841</v>
+        <v>26782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>60581</v>
+        <v>58280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>540</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>1882</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3894</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2422</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5899</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,78 +4732,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>32745</v>
+        <v>33039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7">
-        <v>34343</v>
+        <v>28664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N15" s="7">
-        <v>67088</v>
+        <v>61704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1003</v>
+        <v>741</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>282</v>
@@ -5298,16 +4818,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1003</v>
+        <v>1587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,25 +4836,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>26782</v>
+        <v>20950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>31497</v>
+        <v>22244</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>288</v>
@@ -5346,10 +4866,10 @@
         <v>290</v>
       </c>
       <c r="M17" s="7">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>58280</v>
+        <v>43196</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>291</v>
@@ -5364,52 +4884,52 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1882</v>
+        <v>753</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>295</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>540</v>
+        <v>2982</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>2422</v>
+        <v>3735</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,102 +4938,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>28664</v>
+        <v>22549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>33039</v>
+        <v>25967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>61704</v>
+        <v>48517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>741</v>
+        <v>4250</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>846</v>
+        <v>2421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>1587</v>
+        <v>6671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,100 +5042,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D21" s="7">
-        <v>22244</v>
+        <v>105187</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>20950</v>
+        <v>96894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="N21" s="7">
-        <v>43196</v>
+        <v>202081</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>2982</v>
+        <v>6531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>753</v>
+        <v>11395</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>3735</v>
+        <v>17927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,268 +5144,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="D23" s="7">
-        <v>25967</v>
+        <v>115968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I23" s="7">
-        <v>22549</v>
+        <v>110711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="N23" s="7">
-        <v>48517</v>
+        <v>226679</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2421</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4250</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M24" s="7">
-        <v>10</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6671</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>139</v>
-      </c>
-      <c r="D25" s="7">
-        <v>96894</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H25" s="7">
-        <v>164</v>
-      </c>
-      <c r="I25" s="7">
-        <v>105187</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M25" s="7">
-        <v>303</v>
-      </c>
-      <c r="N25" s="7">
-        <v>202081</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>16</v>
-      </c>
-      <c r="D26" s="7">
-        <v>11395</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6531</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M26" s="7">
-        <v>26</v>
-      </c>
-      <c r="N26" s="7">
-        <v>17927</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>158</v>
-      </c>
-      <c r="D27" s="7">
-        <v>110711</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>181</v>
-      </c>
-      <c r="I27" s="7">
-        <v>115968</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>339</v>
-      </c>
-      <c r="N27" s="7">
-        <v>226679</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>125</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5898,8 +5211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE8F77E-70F4-4D1F-8A09-D894D50A336C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4945A5A-5BA9-402E-8491-0CF82F5F16BD}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5915,7 +5228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6028,7 +5341,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6043,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6058,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,100 +5380,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>1307</v>
+        <v>18908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>4911</v>
+        <v>20166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>6218</v>
+        <v>39075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,72 +5482,72 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>1307</v>
+        <v>20009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>4911</v>
+        <v>21169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>6218</v>
+        <v>41178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6249,22 +5562,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,100 +5586,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>17063</v>
+        <v>31427</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="7">
+        <v>36</v>
+      </c>
+      <c r="I9" s="7">
+        <v>29102</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M9" s="7">
+        <v>75</v>
+      </c>
+      <c r="N9" s="7">
+        <v>60529</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7">
-        <v>13692</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="7">
-        <v>45</v>
-      </c>
-      <c r="N9" s="7">
-        <v>30755</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>902</v>
+        <v>2880</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2666</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5545</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1117</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2019</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,102 +5688,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>17965</v>
+        <v>34798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>14809</v>
+        <v>31768</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>32774</v>
+        <v>66566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1876</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2696</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>491</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>491</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,100 +5792,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>27556</v>
+        <v>22387</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22799</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27756</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45186</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="M13" s="7">
-        <v>75</v>
-      </c>
-      <c r="N13" s="7">
-        <v>55312</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2726</v>
+        <v>1632</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>957</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2588</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2757</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5483</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,102 +5894,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>30282</v>
+        <v>24838</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>31004</v>
+        <v>25632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N15" s="7">
-        <v>61286</v>
+        <v>50470</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1653</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>2485</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,100 +5998,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>20726</v>
+        <v>16130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>22310</v>
+        <v>29620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>43036</v>
+        <v>45750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>935</v>
+        <v>622</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>1622</v>
+        <v>3333</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>2557</v>
+        <v>3955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,102 +6100,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>23314</v>
+        <v>16752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>24764</v>
+        <v>32953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>48078</v>
+        <v>49705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,91 +6204,91 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="D21" s="7">
-        <v>27853</v>
+        <v>88853</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>126</v>
+      </c>
+      <c r="I21" s="7">
+        <v>101687</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H21" s="7">
-        <v>23</v>
-      </c>
-      <c r="I21" s="7">
-        <v>15250</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>252</v>
+      </c>
+      <c r="N21" s="7">
+        <v>190540</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="7">
-        <v>62</v>
-      </c>
-      <c r="N21" s="7">
-        <v>43102</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>3210</v>
+        <v>6234</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7958</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>632</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>421</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>3843</v>
+        <v>14192</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>422</v>
@@ -6993,268 +6306,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>31063</v>
+        <v>96398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="I23" s="7">
-        <v>15882</v>
+        <v>111522</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="N23" s="7">
-        <v>46945</v>
+        <v>207919</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1653</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1324</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2976</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>126</v>
-      </c>
-      <c r="D25" s="7">
-        <v>94505</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H25" s="7">
-        <v>126</v>
-      </c>
-      <c r="I25" s="7">
-        <v>83917</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="M25" s="7">
-        <v>252</v>
-      </c>
-      <c r="N25" s="7">
-        <v>178423</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7774</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6128</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M26" s="7">
-        <v>20</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13902</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>138</v>
-      </c>
-      <c r="D27" s="7">
-        <v>103932</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>138</v>
-      </c>
-      <c r="I27" s="7">
-        <v>91369</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>276</v>
-      </c>
-      <c r="N27" s="7">
-        <v>195301</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>125</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
